--- a/biology/Médecine/Intubation_difficile/Intubation_difficile.xlsx
+++ b/biology/Médecine/Intubation_difficile/Intubation_difficile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une intubation difficile est le terme médical décrivant une intubation trachéale compliquée ne répondant pas aux critères habituels d'intubation par un anesthésiste expérimenté.
 </t>
@@ -511,9 +523,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'expertise collective de 1996 de la Société française d'anesthésie et de réanimation[1] (SFAR), on considère qu'une intubation trachéale est difficile pour un anesthésiste expérimenté, lorsqu'elle nécessite plus de 10 minutes et/ou plus de deux laryngoscopies, dans la position modifiée de Jackson, avec ou sans manipulation laryngée externe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'expertise collective de 1996 de la Société française d'anesthésie et de réanimation (SFAR), on considère qu'une intubation trachéale est difficile pour un anesthésiste expérimenté, lorsqu'elle nécessite plus de 10 minutes et/ou plus de deux laryngoscopies, dans la position modifiée de Jackson, avec ou sans manipulation laryngée externe.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Chariots d’intubation difficile</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La dernière[2] conférence d'experts de la SFAR décrit la composition recommandée des chariots pour intubation difficile dans différentes situations : en anesthésie-réanimation, en pédiatrie, en médecine d'urgence.
-Composition recommandée d’un chariot d’intubation difficile en anesthésie ou réanimation[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La dernière conférence d'experts de la SFAR décrit la composition recommandée des chariots pour intubation difficile dans différentes situations : en anesthésie-réanimation, en pédiatrie, en médecine d'urgence.
+Composition recommandée d’un chariot d’intubation difficile en anesthésie ou réanimation
 Pince de Magill
 Sondes d’intubation de tailles différentes
 Lames métalliques de Macintosh de toutes tailles
@@ -557,12 +573,12 @@
 Fibroscope
 Masque adaptés (de type Fibroxy) et canules d’aide à la fibroscopie
 Concernant le fibroscope, celui-ci peut être disponible sur un chariot individualisé du chariot d’intubation difficile où se trouvera la source de lumière, le fibroscope et tous les accessoires nécessaires à la réalisation de l’endoscopie (la localisation de ce chariot doit être connue de tous).
-Particularités Pédiatriques[2]
+Particularités Pédiatriques
 Le matériel disponible doit être adapté à la taille et au poids des enfants pris en charge.
 Lames droites de Miller
 LMA-Fastrach taille 3 pour les enfants de plus de 30 kg
 Masques laryngés de tailles différentes pour les enfants de moins de 30 kg
-Composition d’un chariot ou mallette d’intubation difficile en Médecine d’urgence [2]
+Composition d’un chariot ou mallette d’intubation difficile en Médecine d’urgence 
 Pince de Magill
 Sondes de tailles différentes
 Lames métalliques de Macintosh de toutes tailles
